--- a/tools/db/TEST.xlsx
+++ b/tools/db/TEST.xlsx
@@ -669,7 +669,7 @@
       </c>
       <c r="F1" s="1">
         <f>SUM(C2:C93)</f>
-        <v>5996</v>
+        <v>6231</v>
       </c>
     </row>
     <row ht="14.25" r="2">
@@ -1630,13 +1630,37 @@
       </c>
     </row>
     <row ht="14.25" r="89">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2">
+        <v>16</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="0">
+        <v>80</v>
+      </c>
     </row>
     <row ht="14.25" r="90">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2">
+        <v>19</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="0">
+        <v>80</v>
+      </c>
     </row>
     <row ht="14.25" r="91">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2">
+        <v>24</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="0">
+        <v>75</v>
+      </c>
     </row>
     <row ht="14.25" r="92">
       <c r="A92" s="2"/>
@@ -1648,7 +1672,7 @@
       </c>
       <c r="C94" s="1">
         <f>SUM(C2:C93)</f>
-        <v>5996</v>
+        <v>6231</v>
       </c>
     </row>
     <row ht="14.25" r="95"/>

--- a/tools/db/TEST.xlsx
+++ b/tools/db/TEST.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>TEST</t>
+    <t>J</t>
   </si>
   <si>
     <t>TEMA</t>
@@ -137,10 +137,12 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,8 +670,8 @@
         <v>3</v>
       </c>
       <c r="F1" s="1">
-        <f>SUM(C2:C93)</f>
-        <v>6231</v>
+        <f>SUM(C2:C95)</f>
+        <v>6306</v>
       </c>
     </row>
     <row ht="14.25" r="2">
@@ -1663,19 +1665,35 @@
       </c>
     </row>
     <row ht="14.25" r="92">
-      <c r="A92" s="2"/>
-    </row>
-    <row ht="14.25" r="93"/>
-    <row ht="23.25" r="94">
-      <c r="B94" s="0" t="s">
+      <c r="A92" s="2">
+        <v>23</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row ht="14.25" r="93">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row ht="14.25" r="94">
+      <c r="A94" s="2"/>
+    </row>
+    <row ht="14.25" r="95"/>
+    <row ht="23.25" r="96">
+      <c r="B96" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="1">
-        <f>SUM(C2:C93)</f>
-        <v>6231</v>
-      </c>
-    </row>
-    <row ht="14.25" r="95"/>
+      <c r="C96" s="1">
+        <f>SUM(C2:C95)</f>
+        <v>6306</v>
+      </c>
+    </row>
+    <row ht="14.25" r="97"/>
   </sheetData>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>

--- a/tools/db/TEST.xlsx
+++ b/tools/db/TEST.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>J</t>
   </si>
@@ -33,30 +33,51 @@
     <t>ACT</t>
   </si>
   <si>
+    <t>EBEP</t>
+  </si>
+  <si>
     <t>LOPJ</t>
   </si>
   <si>
+    <t>LBRL</t>
+  </si>
+  <si>
+    <t>IGUALDAD</t>
+  </si>
+  <si>
     <t>RE</t>
   </si>
   <si>
     <t>GOBIERNO</t>
   </si>
   <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>CIVIL</t>
+  </si>
+  <si>
+    <t>LRJSP</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>PENAL</t>
+  </si>
+  <si>
+    <t>EUROPA</t>
+  </si>
+  <si>
     <t>CIV</t>
   </si>
   <si>
     <t>DISC</t>
   </si>
   <si>
-    <t>PENAL</t>
-  </si>
-  <si>
     <t>OFICINA</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>RD1451</t>
   </si>
   <si>
@@ -66,15 +87,9 @@
     <t>LJS</t>
   </si>
   <si>
-    <t>EUROPA</t>
-  </si>
-  <si>
     <t>CARTA</t>
   </si>
   <si>
-    <t>IGUALDAD</t>
-  </si>
-  <si>
     <t>J-VOLUNTARIA</t>
   </si>
   <si>
@@ -94,13 +109,19 @@
   </si>
   <si>
     <t>148bis</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>OPOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -113,6 +134,7 @@
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill/>
@@ -137,12 +159,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,6 +675,8 @@
     <col customWidth="1" min="1" max="1" width="5.7109375"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="13.00390625"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="11.00390625"/>
+    <col customWidth="1" min="6" max="6" width="10.7109375"/>
+    <col customWidth="1" min="7" max="7" width="12.8515625"/>
   </cols>
   <sheetData>
     <row ht="23.25" r="1">
@@ -670,8 +693,8 @@
         <v>3</v>
       </c>
       <c r="F1" s="1">
-        <f>SUM(C2:C95)</f>
-        <v>6306</v>
+        <f>SUM(C2:C98)</f>
+        <v>9310</v>
       </c>
     </row>
     <row ht="14.25" r="2">
@@ -684,6 +707,15 @@
       <c r="C2" s="2">
         <v>100</v>
       </c>
+      <c r="F2" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="0">
+        <v>400</v>
+      </c>
     </row>
     <row ht="14.25" r="3">
       <c r="A3" s="2">
@@ -695,16 +727,34 @@
       <c r="C3" s="2">
         <v>98</v>
       </c>
+      <c r="F3" s="0">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0">
+        <v>300</v>
+      </c>
     </row>
     <row ht="14.25" r="4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>84</v>
+      </c>
+      <c r="F4" s="0">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="0">
+        <v>310</v>
       </c>
     </row>
     <row ht="14.25" r="5">
@@ -717,16 +767,34 @@
       <c r="C5" s="0">
         <v>90</v>
       </c>
+      <c r="F5" s="0">
+        <v>11</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="0">
+        <v>120</v>
+      </c>
     </row>
     <row ht="14.25" r="6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>80</v>
+      </c>
+      <c r="F6" s="0">
+        <v>15</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0">
+        <v>60</v>
       </c>
     </row>
     <row ht="14.25" r="7">
@@ -739,6 +807,15 @@
       <c r="C7" s="2">
         <v>106</v>
       </c>
+      <c r="F7" s="0">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>60</v>
+      </c>
     </row>
     <row ht="14.25" r="8">
       <c r="A8" s="2">
@@ -750,6 +827,15 @@
       <c r="C8" s="2">
         <v>85</v>
       </c>
+      <c r="F8" s="0">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="0">
+        <v>320</v>
+      </c>
     </row>
     <row ht="14.25" r="9">
       <c r="A9" s="2">
@@ -761,6 +847,15 @@
       <c r="C9" s="2">
         <v>40</v>
       </c>
+      <c r="F9" s="0">
+        <v>27</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="0">
+        <v>490</v>
+      </c>
     </row>
     <row ht="14.25" r="10">
       <c r="A10" s="0">
@@ -772,6 +867,15 @@
       <c r="C10" s="0">
         <v>87</v>
       </c>
+      <c r="F10" s="0">
+        <v>29</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="0">
+        <v>150</v>
+      </c>
     </row>
     <row ht="14.25" r="11">
       <c r="A11" s="0">
@@ -783,6 +887,15 @@
       <c r="C11" s="0">
         <v>89</v>
       </c>
+      <c r="F11" s="0">
+        <v>32</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="0">
+        <v>140</v>
+      </c>
     </row>
     <row ht="14.25" r="12">
       <c r="A12" s="2">
@@ -794,16 +907,34 @@
       <c r="C12" s="2">
         <v>90</v>
       </c>
+      <c r="F12" s="0">
+        <v>41</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="0">
+        <v>410</v>
+      </c>
     </row>
     <row ht="14.25" r="13">
       <c r="A13" s="2">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
+      </c>
+      <c r="F13" s="0">
+        <v>48</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="0">
+        <v>99</v>
       </c>
     </row>
     <row ht="14.25" r="14">
@@ -811,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>100</v>
@@ -822,10 +953,14 @@
         <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C15" s="0">
         <v>100</v>
+      </c>
+      <c r="H15" s="0">
+        <f>SUM(H2:H13)</f>
+        <v>2859</v>
       </c>
     </row>
     <row ht="14.25" r="16">
@@ -833,7 +968,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>97</v>
@@ -844,7 +979,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>75</v>
@@ -855,7 +990,7 @@
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
         <v>80</v>
@@ -866,7 +1001,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C19" s="0">
         <v>70</v>
@@ -877,7 +1012,7 @@
         <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <v>75</v>
@@ -888,7 +1023,7 @@
         <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>40</v>
@@ -899,7 +1034,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
         <v>50</v>
@@ -910,7 +1045,7 @@
         <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -921,7 +1056,7 @@
         <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2">
         <v>100</v>
@@ -932,7 +1067,7 @@
         <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
         <v>80</v>
@@ -943,7 +1078,7 @@
         <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <v>81</v>
@@ -954,7 +1089,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
         <v>25</v>
@@ -965,7 +1100,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
         <v>75</v>
@@ -976,7 +1111,7 @@
         <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
         <v>75</v>
@@ -987,7 +1122,7 @@
         <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>100</v>
@@ -998,7 +1133,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
         <v>75</v>
@@ -1009,7 +1144,7 @@
         <v>86</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="0">
         <v>65</v>
@@ -1020,7 +1155,7 @@
         <v>88</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2">
         <v>50</v>
@@ -1031,7 +1166,7 @@
         <v>89</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2">
         <v>65</v>
@@ -1042,7 +1177,7 @@
         <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2">
         <v>90</v>
@@ -1053,7 +1188,7 @@
         <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2">
         <v>72</v>
@@ -1064,7 +1199,7 @@
         <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2">
         <v>52</v>
@@ -1075,7 +1210,7 @@
         <v>96</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" s="0">
         <v>25</v>
@@ -1086,7 +1221,7 @@
         <v>97</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C39" s="0">
         <v>62</v>
@@ -1097,7 +1232,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="0">
         <v>100</v>
@@ -1108,7 +1243,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2">
         <v>39</v>
@@ -1119,7 +1254,7 @@
         <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2">
         <v>93</v>
@@ -1130,7 +1265,7 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C43" s="0">
         <v>77</v>
@@ -1141,7 +1276,7 @@
         <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2">
         <v>70</v>
@@ -1152,7 +1287,7 @@
         <v>103</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C45" s="0">
         <v>76</v>
@@ -1163,7 +1298,7 @@
         <v>104</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C46" s="0">
         <v>76</v>
@@ -1174,7 +1309,7 @@
         <v>105</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C47" s="0">
         <v>46</v>
@@ -1185,7 +1320,7 @@
         <v>106</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C48" s="0">
         <v>46</v>
@@ -1196,7 +1331,7 @@
         <v>108</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C49" s="0">
         <v>48</v>
@@ -1207,7 +1342,7 @@
         <v>109</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C50" s="0">
         <v>48</v>
@@ -1218,7 +1353,7 @@
         <v>111</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C51" s="0">
         <v>80</v>
@@ -1229,7 +1364,7 @@
         <v>112</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C52" s="0">
         <v>85</v>
@@ -1262,7 +1397,7 @@
         <v>116</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C55" s="0">
         <v>48</v>
@@ -1295,7 +1430,7 @@
         <v>119</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C58" s="0">
         <v>75</v>
@@ -1306,7 +1441,7 @@
         <v>124</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C59" s="0">
         <v>109</v>
@@ -1317,7 +1452,7 @@
         <v>125</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C60" s="0">
         <v>42</v>
@@ -1328,7 +1463,7 @@
         <v>126</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C61" s="0">
         <v>63</v>
@@ -1339,7 +1474,7 @@
         <v>127</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C62" s="0">
         <v>70</v>
@@ -1350,7 +1485,7 @@
         <v>128</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C63" s="0">
         <v>24</v>
@@ -1405,7 +1540,7 @@
         <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C68" s="2">
         <v>58</v>
@@ -1416,7 +1551,7 @@
         <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C69" s="2">
         <v>45</v>
@@ -1427,7 +1562,7 @@
         <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" s="2">
         <v>20</v>
@@ -1438,7 +1573,7 @@
         <v>138</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C71" s="2">
         <v>50</v>
@@ -1449,7 +1584,7 @@
         <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2">
         <v>20</v>
@@ -1460,7 +1595,7 @@
         <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" s="2">
         <v>46</v>
@@ -1471,7 +1606,7 @@
         <v>141</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" s="2">
         <v>25</v>
@@ -1482,7 +1617,7 @@
         <v>142</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C75" s="0">
         <v>50</v>
@@ -1493,7 +1628,7 @@
         <v>143</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" s="0">
         <v>25</v>
@@ -1504,7 +1639,7 @@
         <v>144</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C77" s="2">
         <v>75</v>
@@ -1515,7 +1650,7 @@
         <v>147</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C78" s="2">
         <v>100</v>
@@ -1526,7 +1661,7 @@
         <v>148</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C79" s="2">
         <v>58</v>
@@ -1537,7 +1672,7 @@
         <v>149</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C80" s="2">
         <v>54</v>
@@ -1559,7 +1694,7 @@
         <v>151</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82" s="2">
         <v>100</v>
@@ -1570,7 +1705,7 @@
         <v>152</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C83" s="2">
         <v>36</v>
@@ -1581,7 +1716,7 @@
         <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C84" s="2">
         <v>98</v>
@@ -1592,7 +1727,7 @@
         <v>158</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2">
         <v>95</v>
@@ -1603,7 +1738,7 @@
         <v>500</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C86" s="0">
         <v>104</v>
@@ -1614,7 +1749,7 @@
         <v>501</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C87" s="0">
         <v>104</v>
@@ -1622,10 +1757,10 @@
     </row>
     <row ht="14.25" r="88">
       <c r="A88" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C88" s="2">
         <v>20</v>
@@ -1636,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" s="0">
         <v>80</v>
@@ -1647,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" s="0">
         <v>80</v>
@@ -1658,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C91" s="0">
         <v>75</v>
@@ -1668,32 +1803,67 @@
       <c r="A92" s="2">
         <v>23</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="B92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2">
         <v>75</v>
       </c>
     </row>
     <row ht="14.25" r="93">
-      <c r="A93" s="2"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="A93" s="2">
+        <v>8</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row ht="14.25" r="94">
-      <c r="A94" s="2"/>
-    </row>
-    <row ht="14.25" r="95"/>
-    <row ht="23.25" r="96">
-      <c r="B96" s="0" t="s">
+      <c r="A94" s="2">
+        <v>11</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row ht="14.25" r="95">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row ht="14.25" r="96">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row ht="14.25" r="97">
+      <c r="A97" s="2"/>
+    </row>
+    <row ht="14.25" r="98">
+      <c r="B98" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="3">
+        <f>SUM(H2:H13)</f>
+        <v>2859</v>
+      </c>
+    </row>
+    <row ht="23.25" r="99">
+      <c r="B99" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="1">
-        <f>SUM(C2:C95)</f>
-        <v>6306</v>
-      </c>
-    </row>
-    <row ht="14.25" r="97"/>
+      <c r="C99" s="1">
+        <f>SUM(C2:C98)</f>
+        <v>9310</v>
+      </c>
+    </row>
+    <row ht="14.25" r="100"/>
   </sheetData>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>

--- a/tools/db/TEST.xlsx
+++ b/tools/db/TEST.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>TEMA</t>
   </si>
@@ -75,10 +75,16 @@
     <t>EUROPA</t>
   </si>
   <si>
+    <t>FISCAL</t>
+  </si>
+  <si>
     <t>CIV</t>
   </si>
   <si>
     <t>DISC</t>
+  </si>
+  <si>
+    <t>SIN</t>
   </si>
   <si>
     <t>OFICINA</t>
@@ -156,12 +162,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -689,8 +694,8 @@
         <v>2</v>
       </c>
       <c r="F1" s="1">
-        <f>SUM(C2:C105)</f>
-        <v>9771</v>
+        <f>SUM(C2:C138)</f>
+        <v>13070</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -934,25 +939,25 @@
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>89</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="2">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>90</v>
       </c>
       <c r="H15">
         <f>SUM(H2:H13)</f>
@@ -961,29 +966,29 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="2">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -994,175 +999,175 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24">
-        <v>34</v>
+      <c r="A24" s="2">
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="2">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="2">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C30">
-        <v>70</v>
+      <c r="C30" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="2">
-        <v>70</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2">
-        <v>40</v>
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="2">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="2">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2">
         <v>100</v>
@@ -1170,10 +1175,10 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2">
         <v>100</v>
@@ -1181,766 +1186,1147 @@
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2">
+        <v>44</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2">
         <v>75</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="2">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43">
-        <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>65</v>
+      <c r="A43" s="2">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="2">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C44" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="2">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="2">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="2">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48" s="2">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50">
+      <c r="A50" s="2">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="2">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C53" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" s="2">
-        <v>101</v>
-      </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="2">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C55" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="2">
-        <v>103</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="2">
-        <v>104</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" s="2">
-        <v>105</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58">
-        <v>46</v>
+        <v>70</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59">
-        <v>106</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59">
-        <v>46</v>
+      <c r="A59" s="2">
+        <v>71</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60">
-        <v>108</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60">
-        <v>48</v>
+      <c r="A60" s="2">
+        <v>72</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61">
-        <v>109</v>
-      </c>
-      <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61">
-        <v>48</v>
+      <c r="A61" s="2">
+        <v>73</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62">
-        <v>111</v>
-      </c>
-      <c r="B62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62">
+      <c r="A62" s="2">
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63" s="2">
-        <v>112</v>
-      </c>
-      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="2">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C63">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="A64">
-        <v>113</v>
-      </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64">
-        <v>70</v>
+      <c r="C64" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65">
-        <v>115</v>
-      </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>77</v>
+      <c r="A65" s="2">
+        <v>80</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66">
-        <v>116</v>
-      </c>
-      <c r="B66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66">
-        <v>48</v>
+      <c r="A66" s="2">
+        <v>81</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="2">
-        <v>117</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="2">
-        <v>118</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="2">
-        <v>119</v>
+      <c r="A69">
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70">
-        <v>124</v>
-      </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70">
-        <v>109</v>
+      <c r="A70" s="2">
+        <v>88</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71">
-        <v>125</v>
-      </c>
-      <c r="B71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71">
-        <v>42</v>
+      <c r="A71" s="2">
+        <v>89</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72">
-        <v>126</v>
-      </c>
-      <c r="B72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72">
-        <v>63</v>
+      <c r="A72" s="2">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73">
-        <v>127</v>
-      </c>
-      <c r="B73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73">
-        <v>70</v>
+      <c r="A73" s="2">
+        <v>92</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74">
-        <v>128</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74">
-        <v>24</v>
+      <c r="A74" s="2">
+        <v>95</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C76">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78">
-        <v>132</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78">
-        <v>66</v>
+      <c r="A78" s="2">
+        <v>99</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="2">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="2">
-        <v>136</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="2">
-        <v>45</v>
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>77</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="2">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C81" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="2">
-        <v>138</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="2">
-        <v>50</v>
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <v>76</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="2">
-        <v>139</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="2">
-        <v>20</v>
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83">
+        <v>76</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="2">
-        <v>140</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="2">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84">
         <v>46</v>
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="2">
-        <v>141</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="2">
-        <v>25</v>
+      <c r="A85">
+        <v>106</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85">
+        <v>46</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C86">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C87">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="2">
-        <v>144</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="2">
-        <v>75</v>
+      <c r="A88">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>80</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="2">
-        <v>147</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="2">
-        <v>100</v>
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89">
+        <v>85</v>
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="2">
-        <v>148</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="2">
-        <v>58</v>
+      <c r="A90">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>70</v>
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="2">
-        <v>149</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="2">
-        <v>54</v>
+      <c r="A91">
+        <v>115</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>77</v>
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="2">
-        <v>150</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="2">
-        <v>51</v>
+      <c r="A92">
+        <v>116</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92">
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="2">
-        <v>151</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="2">
-        <v>100</v>
+        <v>117</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>75</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="2">
-        <v>152</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="2">
-        <v>36</v>
+        <v>118</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>80</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="2">
-        <v>156</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="2">
-        <v>98</v>
+        <v>119</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>75</v>
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="2">
-        <v>158</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="2">
-        <v>95</v>
+      <c r="A96">
+        <v>124</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>109</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C97">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99">
+        <v>127</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100">
+        <v>128</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102">
+        <v>130</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103">
+        <v>131</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104">
+        <v>132</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105" s="2">
+        <v>135</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106" s="2">
+        <v>136</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="2">
+        <v>137</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108" s="2">
+        <v>138</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109" s="2">
+        <v>139</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110" s="2">
+        <v>140</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="2">
+        <v>141</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112">
+        <v>142</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113">
+        <v>143</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="2">
+        <v>144</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" s="2">
+        <v>147</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" s="2">
+        <v>148</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="2">
+        <v>149</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C98">
+      <c r="C117" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="A118" s="2">
+        <v>150</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" s="2">
+        <v>151</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" s="2">
+        <v>152</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="A121" s="2">
+        <v>156</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" s="2">
+        <v>158</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="A123" s="2">
+        <v>179</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="A124" s="2">
+        <v>181</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="A125" s="2">
+        <v>188</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="A126" s="2">
+        <v>189</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="A127" s="2">
+        <v>193</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" s="2">
+        <v>195</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" s="2">
+        <v>200</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="99" ht="14.25">
-      <c r="A99" s="3">
-        <v>56</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25">
-      <c r="A100" s="3">
-        <v>57</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" ht="14.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" ht="14.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" ht="14.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" ht="14.25">
-      <c r="B105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" s="5">
+    <row r="130" ht="14.25">
+      <c r="A130" s="2">
+        <v>205</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="A131" s="2">
+        <v>209</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25">
+      <c r="A132" s="2">
+        <v>212</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25">
+      <c r="A133">
+        <v>300</v>
+      </c>
+      <c r="B133" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25">
+      <c r="A134">
+        <v>301</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25">
+      <c r="A135" s="2">
+        <v>302</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="A136" s="2">
+        <v>303</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" ht="14.25">
+      <c r="B138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" s="4">
         <f>SUM(H2:H13)</f>
         <v>2859</v>
       </c>
     </row>
-    <row r="106" ht="14.25"/>
-    <row r="107" ht="14.25">
-      <c r="A107" s="2"/>
-      <c r="C107">
-        <f>SUM(C2:C104)</f>
-        <v>6912</v>
-      </c>
-    </row>
-    <row r="108" ht="23.25">
-      <c r="B108" t="s">
+    <row r="139" ht="14.25"/>
+    <row r="140" ht="14.25">
+      <c r="A140" s="2"/>
+      <c r="C140">
+        <f>SUM(C2:C137)</f>
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="141" ht="23.25">
+      <c r="B141" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="1">
-        <f>SUM(C2:C105)</f>
-        <v>9771</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25"/>
+      <c r="C141" s="1">
+        <f>SUM(C2:C138)</f>
+        <v>13070</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>

--- a/tools/db/TEST.xlsx
+++ b/tools/db/TEST.xlsx
@@ -694,8 +694,8 @@
         <v>2</v>
       </c>
       <c r="F1" s="1">
-        <f>SUM(C2:C138)</f>
-        <v>13070</v>
+        <f>SUM(C2:C146)</f>
+        <v>13269</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -2288,7 +2288,7 @@
       <c r="A136" s="2">
         <v>303</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C136" s="2">
@@ -2296,37 +2296,89 @@
       </c>
     </row>
     <row r="137" ht="14.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="A137" s="2">
+        <v>186</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="138" ht="14.25">
-      <c r="B138" t="s">
+      <c r="A138" s="2">
+        <v>159</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" ht="14.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" ht="14.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" ht="14.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" ht="14.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" ht="14.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" ht="14.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" ht="14.25">
+      <c r="B146" t="s">
         <v>34</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C146" s="4">
         <f>SUM(H2:H13)</f>
         <v>2859</v>
       </c>
     </row>
-    <row r="139" ht="14.25"/>
-    <row r="140" ht="14.25">
-      <c r="A140" s="2"/>
-      <c r="C140">
-        <f>SUM(C2:C137)</f>
-        <v>10211</v>
-      </c>
-    </row>
-    <row r="141" ht="23.25">
-      <c r="B141" t="s">
+    <row r="147" ht="14.25"/>
+    <row r="148" ht="14.25">
+      <c r="A148" s="2"/>
+      <c r="C148">
+        <f>SUM(C2:C145)</f>
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="149" ht="23.25">
+      <c r="B149" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="1">
-        <f>SUM(C2:C138)</f>
-        <v>13070</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25"/>
+      <c r="C149" s="1">
+        <f>SUM(C2:C146)</f>
+        <v>13269</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
